--- a/ITI/Scheduling/StructureDefinition-IHE.Scheduling.Book.Audit.Source.xlsx
+++ b/ITI/Scheduling/StructureDefinition-IHE.Scheduling.Book.Audit.Source.xlsx
@@ -33,13 +33,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>AuditSchedulingClient</t>
+    <t>AuditSchedulingBookClient</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:38:57-05:00</t>
+    <t>2024-12-12T08:26:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Defines constraints on the AuditEvent Resource to record when a Book Appointment \[ITI-117\] Transaction happens at the Source.
 - Build off of the IHE Basic Audit Patient Create event
 - add the ITI-117 as a subtype
-- client is the Schedulking Client
+- client is the Scheduling Client
 - Server is the Scheduling Server
 - may have user, app, organization agent(s)
 - shall have a patient entity
